--- a/HR_OnBoarding_Process - UiPath/Data/Input/MasterData.xlsx
+++ b/HR_OnBoarding_Process - UiPath/Data/Input/MasterData.xlsx
@@ -1,135 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8556"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8556" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="124519"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Emp ID</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Date Of Joining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location </t>
-  </si>
-  <si>
-    <t>CTC</t>
-  </si>
-  <si>
-    <t>PAN Number</t>
-  </si>
-  <si>
-    <t>Bank Name</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>IFSC Code</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <x:si>
+    <x:t>Emp ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FirstName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LastName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mobile Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Designation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date Of Joining</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Location </x:t>
+  </x:si>
+  <x:si>
+    <x:t>CTC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAN Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IFSC Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Astha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y.Astha@excelcult.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> QA Analyst
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 31 Jan, 2020
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Bangalore
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> INR 3,40,000/-
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASVPA7XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Citi Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7855XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CITI000XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A.Jack@excelcult.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Sr.Consultant
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 24 Jan, 2020
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Texas
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> INR 5,80,000/-
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JQVPA7XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78440XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>James</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K.James@excelcult.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Sr.Developer
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 10 Jan, 2020
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Hyderabad
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> INR 4,00,000/-
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WQVPA7XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95530XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>922</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kiran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A.Kiran@excelcult.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Developer
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AZVPA7XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23530XXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Developer
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 10 Jan, 2020
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Hyderabad
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> INR 4,00,000/-
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+<x:styleSheet xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="2">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
     <x:ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -138,7 +326,7 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
-</styleSheet>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,77 +613,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="53" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:N1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 A2:A2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="59.395625" defaultRowHeight="14.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.664062" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="13.554688" style="3" customWidth="1"/>
+    <x:col min="3" max="3" width="18.664062" style="3" customWidth="1"/>
+    <x:col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <x:col min="5" max="5" width="18.664062" style="3" customWidth="1"/>
+    <x:col min="6" max="6" width="14.441406" style="3" customWidth="1"/>
+    <x:col min="7" max="7" width="21.21875" style="3" customWidth="1"/>
+    <x:col min="8" max="8" width="19.109375" style="3" customWidth="1"/>
+    <x:col min="9" max="9" width="14.777344" style="3" customWidth="1"/>
+    <x:col min="10" max="10" width="9.109375" style="3" customWidth="1"/>
+    <x:col min="11" max="11" width="14.886719" style="3" customWidth="1"/>
+    <x:col min="12" max="12" width="13.21875" style="3" customWidth="1"/>
+    <x:col min="13" max="13" width="14.886719" style="3" customWidth="1"/>
+    <x:col min="14" max="14" width="13.441406" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:14">
+      <x:c r="A1" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14">
+      <x:c r="A2" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s"/>
+      <x:c r="G2" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L2" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M2" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N2" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14">
+      <x:c r="A3" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J3" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M3" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N3" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14">
+      <x:c r="A4" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I4" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K4" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L4" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M4" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N4" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14">
+      <x:c r="A5" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14">
+      <x:c r="A6" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H6" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I6" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J6" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K6" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L6" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M6" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N6" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14">
+      <x:c r="A7" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="s"/>
+      <x:c r="G7" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K7" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L7" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M7" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N7" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:14">
+      <x:c r="A8" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I8" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K8" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L8" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M8" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N8" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:14">
+      <x:c r="A9" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K9" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L9" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M9" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N9" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:14">
+      <x:c r="A10" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F10" s="3" t="s"/>
+      <x:c r="G10" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H10" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I10" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J10" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K10" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L10" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M10" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N10" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>